--- a/Code/Results/Cases/Case_6_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.86580893073653</v>
+        <v>14.51054232755054</v>
       </c>
       <c r="C2">
-        <v>10.74432227013128</v>
+        <v>6.463130992475495</v>
       </c>
       <c r="D2">
-        <v>2.637920693838845</v>
+        <v>5.308075140429913</v>
       </c>
       <c r="E2">
-        <v>6.300423458666844</v>
+        <v>7.822087223541336</v>
       </c>
       <c r="F2">
-        <v>35.92407411708309</v>
+        <v>25.36693746863732</v>
       </c>
       <c r="G2">
-        <v>2.12789682719404</v>
+        <v>2.122995990433311</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.812000761957145</v>
+        <v>5.930814282741357</v>
       </c>
       <c r="K2">
-        <v>17.92965508158748</v>
+        <v>10.87627351401391</v>
       </c>
       <c r="L2">
-        <v>7.362728818597783</v>
+        <v>6.66307303321404</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.30589137799242</v>
+        <v>13.82627263071378</v>
       </c>
       <c r="O2">
-        <v>26.9919090136583</v>
+        <v>18.98296140429413</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.585806948773</v>
+        <v>13.69018962701759</v>
       </c>
       <c r="C3">
-        <v>10.01496787502055</v>
+        <v>6.389589980720063</v>
       </c>
       <c r="D3">
-        <v>2.596757141351026</v>
+        <v>5.135854737346012</v>
       </c>
       <c r="E3">
-        <v>6.317270752929484</v>
+        <v>7.771608027508865</v>
       </c>
       <c r="F3">
-        <v>35.16158630788127</v>
+        <v>25.21491604402831</v>
       </c>
       <c r="G3">
-        <v>2.137091251282589</v>
+        <v>2.12771335482707</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.862858628993523</v>
+        <v>5.972158889405925</v>
       </c>
       <c r="K3">
-        <v>16.9268368947283</v>
+        <v>10.17837895441978</v>
       </c>
       <c r="L3">
-        <v>7.21306536911413</v>
+        <v>6.540035474170214</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.5593718932585</v>
+        <v>14.0274697552342</v>
       </c>
       <c r="O3">
-        <v>26.51826504898488</v>
+        <v>19.00415283328705</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.77569726511225</v>
+        <v>13.16539366850774</v>
       </c>
       <c r="C4">
-        <v>9.543475272041704</v>
+        <v>6.344130590267927</v>
       </c>
       <c r="D4">
-        <v>2.571725438182944</v>
+        <v>5.029005896701917</v>
       </c>
       <c r="E4">
-        <v>6.329480905313455</v>
+        <v>7.743656599456131</v>
       </c>
       <c r="F4">
-        <v>34.71778273455042</v>
+        <v>25.13844302570683</v>
       </c>
       <c r="G4">
-        <v>2.142885693437289</v>
+        <v>2.130706117903987</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.895340721111659</v>
+        <v>5.998932255104891</v>
       </c>
       <c r="K4">
-        <v>16.29219266547298</v>
+        <v>9.725176701406614</v>
       </c>
       <c r="L4">
-        <v>7.123519214822672</v>
+        <v>6.465733618347482</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.7182261088892</v>
+        <v>14.15386949735734</v>
       </c>
       <c r="O4">
-        <v>26.24770408916818</v>
+        <v>19.02951525687881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.43980686821855</v>
+        <v>12.94642829216285</v>
       </c>
       <c r="C5">
-        <v>9.345327262262163</v>
+        <v>6.325536002444506</v>
       </c>
       <c r="D5">
-        <v>2.561584124272155</v>
+        <v>4.985251909278276</v>
       </c>
       <c r="E5">
-        <v>6.334918390502617</v>
+        <v>7.733028285400841</v>
       </c>
       <c r="F5">
-        <v>34.54302699802268</v>
+        <v>25.1114307452069</v>
       </c>
       <c r="G5">
-        <v>2.145286170148691</v>
+        <v>2.131950358500331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.908895913285432</v>
+        <v>6.010190487796074</v>
       </c>
       <c r="K5">
-        <v>16.02906333884216</v>
+        <v>9.534273544604911</v>
       </c>
       <c r="L5">
-        <v>7.087643587397556</v>
+        <v>6.435799648125151</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.78379858155926</v>
+        <v>14.20611892099748</v>
       </c>
       <c r="O5">
-        <v>26.14245018271678</v>
+        <v>19.0428567078799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.38369515556909</v>
+        <v>12.90976745646219</v>
       </c>
       <c r="C6">
-        <v>9.312060255406704</v>
+        <v>6.322444399506903</v>
       </c>
       <c r="D6">
-        <v>2.559903712250451</v>
+        <v>4.977975784182574</v>
       </c>
       <c r="E6">
-        <v>6.335848959371345</v>
+        <v>7.731309380087871</v>
       </c>
       <c r="F6">
-        <v>34.514376149448</v>
+        <v>25.10719330484231</v>
       </c>
       <c r="G6">
-        <v>2.145687182954387</v>
+        <v>2.132158466403341</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.911166060683662</v>
+        <v>6.01208089107835</v>
       </c>
       <c r="K6">
-        <v>15.98510716675844</v>
+        <v>9.502198386999464</v>
       </c>
       <c r="L6">
-        <v>7.081724345131181</v>
+        <v>6.430850877808336</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.79473830198711</v>
+        <v>14.21484020208091</v>
       </c>
       <c r="O6">
-        <v>26.12527206893472</v>
+        <v>19.04525069689986</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.77119019340609</v>
+        <v>13.16246100890209</v>
       </c>
       <c r="C7">
-        <v>9.540827391771634</v>
+        <v>6.343880089033322</v>
       </c>
       <c r="D7">
-        <v>2.571588430498568</v>
+        <v>5.028416584245347</v>
       </c>
       <c r="E7">
-        <v>6.329552377061572</v>
+        <v>7.743510181378708</v>
       </c>
       <c r="F7">
-        <v>34.71540127469424</v>
+        <v>25.13806204593553</v>
       </c>
       <c r="G7">
-        <v>2.142917906212617</v>
+        <v>2.130722797708956</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.895522237911939</v>
+        <v>5.999082680337381</v>
       </c>
       <c r="K7">
-        <v>16.2886618862412</v>
+        <v>9.722627307115063</v>
       </c>
       <c r="L7">
-        <v>7.123032860015381</v>
+        <v>6.465328480939181</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.7191070105398</v>
+        <v>14.1545711267467</v>
       </c>
       <c r="O7">
-        <v>26.24626447448287</v>
+        <v>19.02968314433113</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.42965038644936</v>
+        <v>14.2321692537663</v>
       </c>
       <c r="C8">
-        <v>10.49771475432286</v>
+        <v>6.437841550269649</v>
       </c>
       <c r="D8">
-        <v>2.623675750041875</v>
+        <v>5.248960710513106</v>
       </c>
       <c r="E8">
-        <v>6.305840549416944</v>
+        <v>7.804048905369972</v>
       </c>
       <c r="F8">
-        <v>35.65609586587354</v>
+        <v>25.31096698391864</v>
       </c>
       <c r="G8">
-        <v>2.131037205332749</v>
+        <v>2.124602833614503</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.829277782817513</v>
+        <v>5.944781226643657</v>
       </c>
       <c r="K8">
-        <v>17.58793883600154</v>
+        <v>10.64075615140065</v>
       </c>
       <c r="L8">
-        <v>7.310652319787128</v>
+        <v>6.620410718510993</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.39264190804698</v>
+        <v>13.89506353913274</v>
       </c>
       <c r="O8">
-        <v>26.82433897773976</v>
+        <v>18.98764477565064</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.47983246635506</v>
+        <v>16.15576587534519</v>
       </c>
       <c r="C9">
-        <v>12.18941895282219</v>
+        <v>6.619384031087866</v>
       </c>
       <c r="D9">
-        <v>2.727881936854409</v>
+        <v>5.670054581491782</v>
       </c>
       <c r="E9">
-        <v>6.274503759339911</v>
+        <v>7.947000337496537</v>
       </c>
       <c r="F9">
-        <v>37.69526181545753</v>
+        <v>25.78757953847485</v>
       </c>
       <c r="G9">
-        <v>2.108837553526767</v>
+        <v>2.113344009298553</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.709199548090884</v>
+        <v>5.849360456957109</v>
       </c>
       <c r="K9">
-        <v>19.97781615616116</v>
+        <v>12.24605501089666</v>
       </c>
       <c r="L9">
-        <v>7.696164726537688</v>
+        <v>6.933000986440646</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.77659046501141</v>
+        <v>13.40792159979307</v>
       </c>
       <c r="O9">
-        <v>28.12252086547345</v>
+        <v>19.00767151518101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.58877062192093</v>
+        <v>17.4562448360105</v>
       </c>
       <c r="C10">
-        <v>13.32437564858442</v>
+        <v>6.750743144453028</v>
       </c>
       <c r="D10">
-        <v>2.80599000625718</v>
+        <v>5.969350627398739</v>
       </c>
       <c r="E10">
-        <v>6.261257621275941</v>
+        <v>8.066867143027725</v>
       </c>
       <c r="F10">
-        <v>39.31391420033275</v>
+        <v>26.22616241377337</v>
       </c>
       <c r="G10">
-        <v>2.093069062375399</v>
+        <v>2.105493187246679</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.626781138907869</v>
+        <v>5.786086028663178</v>
       </c>
       <c r="K10">
-        <v>21.71677171135209</v>
+        <v>13.30791000468619</v>
       </c>
       <c r="L10">
-        <v>7.988889532182666</v>
+        <v>7.166007762055465</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.33673526087464</v>
+        <v>13.06184584810199</v>
       </c>
       <c r="O10">
-        <v>29.18186084808904</v>
+        <v>19.09095788730409</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.51884471273106</v>
+        <v>18.02251613641417</v>
       </c>
       <c r="C11">
-        <v>13.81842757253956</v>
+        <v>6.809995125832476</v>
       </c>
       <c r="D11">
-        <v>2.841956080972019</v>
+        <v>6.102765639643481</v>
       </c>
       <c r="E11">
-        <v>6.257484093907646</v>
+        <v>8.124616916138946</v>
       </c>
       <c r="F11">
-        <v>40.07710424897336</v>
+        <v>26.44571540567091</v>
       </c>
       <c r="G11">
-        <v>2.08598144264045</v>
+        <v>2.10200573002961</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.590505622871798</v>
+        <v>5.758807370535759</v>
       </c>
       <c r="K11">
-        <v>22.54377399792162</v>
+        <v>13.76582739308478</v>
       </c>
       <c r="L11">
-        <v>8.123917692619811</v>
+        <v>7.272371535996941</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.13896922539291</v>
+        <v>12.90664002734711</v>
       </c>
       <c r="O11">
-        <v>29.68791378486431</v>
+        <v>19.14503801621503</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.86683877756894</v>
+        <v>18.23326253099156</v>
       </c>
       <c r="C12">
-        <v>14.00242074541021</v>
+        <v>6.832354690282508</v>
       </c>
       <c r="D12">
-        <v>2.855648583189516</v>
+        <v>6.15285402070963</v>
       </c>
       <c r="E12">
-        <v>6.256390881622861</v>
+        <v>8.146946938034809</v>
       </c>
       <c r="F12">
-        <v>40.3700479278749</v>
+        <v>26.53179413724732</v>
       </c>
       <c r="G12">
-        <v>2.083306905802716</v>
+        <v>2.100696553559684</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.57694069674926</v>
+        <v>5.748696464502814</v>
       </c>
       <c r="K12">
-        <v>22.85178615230147</v>
+        <v>13.93564972895603</v>
       </c>
       <c r="L12">
-        <v>8.175306165581855</v>
+        <v>7.312673255485197</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.06437955298499</v>
+        <v>12.84815862321286</v>
       </c>
       <c r="O12">
-        <v>29.88312879473808</v>
+        <v>19.16795085521985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.7920784071955</v>
+        <v>18.18803911975772</v>
       </c>
       <c r="C13">
-        <v>13.96293031906351</v>
+        <v>6.827542700850037</v>
       </c>
       <c r="D13">
-        <v>2.852696220490454</v>
+        <v>6.142086422879958</v>
       </c>
       <c r="E13">
-        <v>6.256611191715843</v>
+        <v>8.142117280328465</v>
       </c>
       <c r="F13">
-        <v>40.30678042654381</v>
+        <v>26.51312398831156</v>
       </c>
       <c r="G13">
-        <v>2.083882547158349</v>
+        <v>2.100978009242914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.579854555561617</v>
+        <v>5.750864249261332</v>
       </c>
       <c r="K13">
-        <v>22.78567688839318</v>
+        <v>13.89923417943631</v>
       </c>
       <c r="L13">
-        <v>8.164227478908771</v>
+        <v>7.303992926610432</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.08043097635802</v>
+        <v>12.86074113822243</v>
       </c>
       <c r="O13">
-        <v>29.84092439882187</v>
+        <v>19.16290625034899</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.5475584501708</v>
+        <v>18.03992849296996</v>
       </c>
       <c r="C14">
-        <v>13.83362616002206</v>
+        <v>6.811836250109855</v>
       </c>
       <c r="D14">
-        <v>2.843081040799497</v>
+        <v>6.106895326488013</v>
       </c>
       <c r="E14">
-        <v>6.257387354100365</v>
+        <v>8.126444784929454</v>
       </c>
       <c r="F14">
-        <v>40.10112537027216</v>
+        <v>26.45273794972076</v>
       </c>
       <c r="G14">
-        <v>2.085761236446494</v>
+        <v>2.101897797538308</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.589386203019849</v>
+        <v>5.757971137221393</v>
       </c>
       <c r="K14">
-        <v>22.5692167280424</v>
+        <v>13.77987035522555</v>
       </c>
       <c r="L14">
-        <v>8.128140368573387</v>
+        <v>7.27568685847644</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.13282687189858</v>
+        <v>12.90182305021649</v>
       </c>
       <c r="O14">
-        <v>29.70390171785264</v>
+        <v>19.14687369059929</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.39723637217036</v>
+        <v>17.94872504979037</v>
       </c>
       <c r="C15">
-        <v>13.75402406227382</v>
+        <v>6.802205304134869</v>
       </c>
       <c r="D15">
-        <v>2.837201316749578</v>
+        <v>6.085282292048799</v>
       </c>
       <c r="E15">
-        <v>6.257906869920557</v>
+        <v>8.116904958270585</v>
       </c>
       <c r="F15">
-        <v>39.97567171076247</v>
+        <v>26.41613407340126</v>
       </c>
       <c r="G15">
-        <v>2.086913119245009</v>
+        <v>2.102462666277101</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.595246893642406</v>
+        <v>5.762352901330896</v>
       </c>
       <c r="K15">
-        <v>22.43596206635711</v>
+        <v>13.70629120568845</v>
       </c>
       <c r="L15">
-        <v>8.106069070564107</v>
+        <v>7.258350886600651</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.1649589233289</v>
+        <v>12.92702402010744</v>
       </c>
       <c r="O15">
-        <v>29.62044167392705</v>
+        <v>19.1373733582345</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52739817724576</v>
+        <v>17.41872369488311</v>
       </c>
       <c r="C16">
-        <v>13.29164932061399</v>
+        <v>6.746860271003935</v>
       </c>
       <c r="D16">
-        <v>2.803649118208231</v>
+        <v>5.960573084418283</v>
       </c>
       <c r="E16">
-        <v>6.261550541795232</v>
+        <v>8.063157743335433</v>
       </c>
       <c r="F16">
-        <v>39.26458433588524</v>
+        <v>26.21222236825292</v>
       </c>
       <c r="G16">
-        <v>2.093533734445403</v>
+        <v>2.105722737299802</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.629176047976912</v>
+        <v>5.787899247094311</v>
       </c>
       <c r="K16">
-        <v>21.66199495930873</v>
+        <v>13.27748110559956</v>
       </c>
       <c r="L16">
-        <v>7.98010152517069</v>
+        <v>7.159061532744721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.34970359737423</v>
+        <v>13.07203131314794</v>
       </c>
       <c r="O16">
-        <v>29.1492841739994</v>
+        <v>19.0877584906565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.98626789833974</v>
+        <v>17.08706004712189</v>
       </c>
       <c r="C17">
-        <v>13.00237145255126</v>
+        <v>6.712774772015137</v>
       </c>
       <c r="D17">
-        <v>2.783183867182228</v>
+        <v>5.883337418097507</v>
       </c>
       <c r="E17">
-        <v>6.264370786998316</v>
+        <v>8.031009592652115</v>
       </c>
       <c r="F17">
-        <v>38.83528001312354</v>
+        <v>26.09230421422787</v>
       </c>
       <c r="G17">
-        <v>2.097615200263372</v>
+        <v>2.107743749455484</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.650299946622678</v>
+        <v>5.803958293965702</v>
       </c>
       <c r="K17">
-        <v>21.17783894983627</v>
+        <v>13.00800658591666</v>
       </c>
       <c r="L17">
-        <v>7.903292293044399</v>
+        <v>7.098223827596899</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.46360974291036</v>
+        <v>13.16153899069478</v>
       </c>
       <c r="O17">
-        <v>28.86650391027312</v>
+        <v>19.06154397312479</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.67226332038289</v>
+        <v>16.89391390987635</v>
       </c>
       <c r="C18">
-        <v>12.83388571540171</v>
+        <v>6.693122548554749</v>
       </c>
       <c r="D18">
-        <v>2.771452911939836</v>
+        <v>5.838657979488262</v>
       </c>
       <c r="E18">
-        <v>6.266204136421873</v>
+        <v>8.012822224305333</v>
       </c>
       <c r="F18">
-        <v>38.5908771228809</v>
+        <v>26.02521364983051</v>
       </c>
       <c r="G18">
-        <v>2.09997099455498</v>
+        <v>2.108914120386003</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.662564600607277</v>
+        <v>5.813336543054157</v>
       </c>
       <c r="K18">
-        <v>20.91220932116578</v>
+        <v>12.85064491608261</v>
       </c>
       <c r="L18">
-        <v>7.859289746494222</v>
+        <v>7.063267822389322</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.52934658222181</v>
+        <v>13.21323273710886</v>
       </c>
       <c r="O18">
-        <v>28.70612219125243</v>
+        <v>19.04798396309119</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.56547317445154</v>
+        <v>16.82811056347732</v>
       </c>
       <c r="C19">
-        <v>12.7764754922347</v>
+        <v>6.686460720909084</v>
       </c>
       <c r="D19">
-        <v>2.767487622169746</v>
+        <v>5.823487692447654</v>
       </c>
       <c r="E19">
-        <v>6.266860809033808</v>
+        <v>8.006716450410153</v>
       </c>
       <c r="F19">
-        <v>38.50855771050109</v>
+        <v>26.00281954121236</v>
       </c>
       <c r="G19">
-        <v>2.100770125620974</v>
+        <v>2.109311769581982</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.666737005681701</v>
+        <v>5.816536090685609</v>
       </c>
       <c r="K19">
-        <v>20.82852578562624</v>
+        <v>12.79695748454061</v>
       </c>
       <c r="L19">
-        <v>7.844421935486761</v>
+        <v>7.051439452412869</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.55164296158461</v>
+        <v>13.23077247977425</v>
       </c>
       <c r="O19">
-        <v>28.65220580264943</v>
+        <v>19.04365025020672</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.04415796796108</v>
+        <v>17.12261313031924</v>
       </c>
       <c r="C20">
-        <v>13.03338226627249</v>
+        <v>6.716408152166567</v>
       </c>
       <c r="D20">
-        <v>2.785358208153366</v>
+        <v>5.89158603547476</v>
       </c>
       <c r="E20">
-        <v>6.264048624018613</v>
+        <v>8.034400429453354</v>
       </c>
       <c r="F20">
-        <v>38.88071874911412</v>
+        <v>26.10487437198203</v>
       </c>
       <c r="G20">
-        <v>2.097179888255738</v>
+        <v>2.107527792066922</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.648039418663589</v>
+        <v>5.8022341182149</v>
       </c>
       <c r="K20">
-        <v>21.22973782393748</v>
+        <v>13.03693736631799</v>
       </c>
       <c r="L20">
-        <v>7.911450646045679</v>
+        <v>7.104696570087819</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.45146161291463</v>
+        <v>13.15198907741694</v>
       </c>
       <c r="O20">
-        <v>28.89637108564189</v>
+        <v>19.06417669163506</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.6194937072832</v>
+        <v>18.08353255847783</v>
       </c>
       <c r="C21">
-        <v>13.87168899204157</v>
+        <v>6.816451768882299</v>
       </c>
       <c r="D21">
-        <v>2.845903176897149</v>
+        <v>6.117243844862055</v>
       </c>
       <c r="E21">
-        <v>6.25715016453561</v>
+        <v>8.13103567063771</v>
       </c>
       <c r="F21">
-        <v>40.16142352446204</v>
+        <v>26.47039460766531</v>
       </c>
       <c r="G21">
-        <v>2.085209189722274</v>
+        <v>2.101627327845764</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.586581889449955</v>
+        <v>5.755877708957915</v>
       </c>
       <c r="K21">
-        <v>22.63293493600604</v>
+        <v>13.8150273236011</v>
       </c>
       <c r="L21">
-        <v>8.138733143966427</v>
+        <v>7.284000603615744</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.11742905836573</v>
+        <v>12.88974861570929</v>
       </c>
       <c r="O21">
-        <v>29.74405036509077</v>
+        <v>19.15151595230663</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.6245951698646</v>
+        <v>18.6900411633908</v>
       </c>
       <c r="C22">
-        <v>14.40159601909548</v>
+        <v>6.881380098067198</v>
       </c>
       <c r="D22">
-        <v>2.885904644793424</v>
+        <v>6.262185779855763</v>
       </c>
       <c r="E22">
-        <v>6.254604883324448</v>
+        <v>8.196880827676118</v>
       </c>
       <c r="F22">
-        <v>41.02146599089737</v>
+        <v>26.72643544568292</v>
       </c>
       <c r="G22">
-        <v>2.077438803034156</v>
+        <v>2.097837446571887</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.547415855197069</v>
+        <v>5.7268585808572</v>
       </c>
       <c r="K22">
-        <v>23.52003878025494</v>
+        <v>14.30269778942492</v>
       </c>
       <c r="L22">
-        <v>8.288767240712422</v>
+        <v>7.401314510918722</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.90085255668516</v>
+        <v>12.72004497310847</v>
       </c>
       <c r="O22">
-        <v>30.31901269939066</v>
+        <v>19.22283187437221</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09037784762972</v>
+        <v>18.36831510066492</v>
       </c>
       <c r="C23">
-        <v>14.12038171932564</v>
+        <v>6.846769965797758</v>
       </c>
       <c r="D23">
-        <v>2.864511462263078</v>
+        <v>6.185071532904328</v>
       </c>
       <c r="E23">
-        <v>6.255779499514912</v>
+        <v>8.161492763567212</v>
       </c>
       <c r="F23">
-        <v>40.56030331128949</v>
+        <v>26.58819471625478</v>
       </c>
       <c r="G23">
-        <v>2.081582185001993</v>
+        <v>2.099854314999404</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.568229067561572</v>
+        <v>5.742228846464716</v>
       </c>
       <c r="K23">
-        <v>23.04926125323053</v>
+        <v>14.04431596243584</v>
       </c>
       <c r="L23">
-        <v>8.208557317562496</v>
+        <v>7.338699127159018</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.01629624978352</v>
+        <v>12.81047459637885</v>
       </c>
       <c r="O23">
-        <v>30.01018538976034</v>
+        <v>19.18343217837556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.0179949052163</v>
+        <v>17.10654726583209</v>
       </c>
       <c r="C24">
-        <v>13.01936906308521</v>
+        <v>6.714765675058451</v>
       </c>
       <c r="D24">
-        <v>2.784375080993089</v>
+        <v>5.887857691013147</v>
       </c>
       <c r="E24">
-        <v>6.26419361459976</v>
+        <v>8.032866513041313</v>
       </c>
       <c r="F24">
-        <v>38.86016839575815</v>
+        <v>26.09918563954367</v>
       </c>
       <c r="G24">
-        <v>2.097376663614598</v>
+        <v>2.107625399991827</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.649061028583299</v>
+        <v>5.803013164466927</v>
       </c>
       <c r="K24">
-        <v>21.20628560191292</v>
+        <v>13.023865354159</v>
       </c>
       <c r="L24">
-        <v>7.907761767432634</v>
+        <v>7.10177017744954</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.45695299906434</v>
+        <v>13.15630586038674</v>
       </c>
       <c r="O24">
-        <v>28.88286131482921</v>
+        <v>19.06298174095785</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.67745494696608</v>
+        <v>15.65481882109329</v>
       </c>
       <c r="C25">
-        <v>11.75108990701913</v>
+        <v>6.570601830131677</v>
       </c>
       <c r="D25">
-        <v>2.699445979024182</v>
+        <v>5.557701957533133</v>
       </c>
       <c r="E25">
-        <v>6.281305286293796</v>
+        <v>7.905723138655718</v>
       </c>
       <c r="F25">
-        <v>37.12261852349343</v>
+        <v>25.64341861222367</v>
       </c>
       <c r="G25">
-        <v>2.114738090890337</v>
+        <v>2.116313505254482</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.740651069445011</v>
+        <v>5.873981714799441</v>
       </c>
       <c r="K25">
-        <v>19.34910231382887</v>
+        <v>11.832540448649</v>
       </c>
       <c r="L25">
-        <v>7.590126565924569</v>
+        <v>6.847721010525166</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.94086355117218</v>
+        <v>13.53752118534786</v>
       </c>
       <c r="O25">
-        <v>27.75316982970441</v>
+        <v>18.99065263915904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.51054232755054</v>
+        <v>13.25558484697136</v>
       </c>
       <c r="C2">
-        <v>6.463130992475495</v>
+        <v>7.345853142408135</v>
       </c>
       <c r="D2">
-        <v>5.308075140429913</v>
+        <v>6.13961080002772</v>
       </c>
       <c r="E2">
-        <v>7.822087223541336</v>
+        <v>8.076839936522955</v>
       </c>
       <c r="F2">
-        <v>25.36693746863732</v>
+        <v>21.29833363724492</v>
       </c>
       <c r="G2">
-        <v>2.122995990433311</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>23.49293160747434</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.237728696301764</v>
       </c>
       <c r="J2">
-        <v>5.930814282741357</v>
+        <v>9.551227098905022</v>
       </c>
       <c r="K2">
-        <v>10.87627351401391</v>
+        <v>15.58624683406972</v>
       </c>
       <c r="L2">
-        <v>6.66307303321404</v>
+        <v>5.806183276194467</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.77536778758028</v>
       </c>
       <c r="N2">
-        <v>13.82627263071378</v>
+        <v>6.76528457397377</v>
       </c>
       <c r="O2">
-        <v>18.98296140429413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.0140867107188</v>
+      </c>
+      <c r="Q2">
+        <v>15.57322890257674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69018962701759</v>
+        <v>12.44342974974594</v>
       </c>
       <c r="C3">
-        <v>6.389589980720063</v>
+        <v>7.20039414444178</v>
       </c>
       <c r="D3">
-        <v>5.135854737346012</v>
+        <v>5.951153066659439</v>
       </c>
       <c r="E3">
-        <v>7.771608027508865</v>
+        <v>8.015670693106104</v>
       </c>
       <c r="F3">
-        <v>25.21491604402831</v>
+        <v>21.18487859090309</v>
       </c>
       <c r="G3">
-        <v>2.12771335482707</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>23.37028050876414</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.382096836089671</v>
       </c>
       <c r="J3">
-        <v>5.972158889405925</v>
+        <v>9.604427109669759</v>
       </c>
       <c r="K3">
-        <v>10.17837895441978</v>
+        <v>15.68934398236789</v>
       </c>
       <c r="L3">
-        <v>6.540035474170214</v>
+        <v>5.83417490776943</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.15547782864924</v>
       </c>
       <c r="N3">
-        <v>14.0274697552342</v>
+        <v>6.633690573071585</v>
       </c>
       <c r="O3">
-        <v>19.00415283328705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.14813786884879</v>
+      </c>
+      <c r="Q3">
+        <v>15.61430589507225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.16539366850774</v>
+        <v>11.91590046184054</v>
       </c>
       <c r="C4">
-        <v>6.344130590267927</v>
+        <v>7.109977447931468</v>
       </c>
       <c r="D4">
-        <v>5.029005896701917</v>
+        <v>5.834626117622392</v>
       </c>
       <c r="E4">
-        <v>7.743656599456131</v>
+        <v>7.980244460042127</v>
       </c>
       <c r="F4">
-        <v>25.13844302570683</v>
+        <v>21.12490658079081</v>
       </c>
       <c r="G4">
-        <v>2.130706117903987</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>23.30794218459184</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.474958623811542</v>
       </c>
       <c r="J4">
-        <v>5.998932255104891</v>
+        <v>9.64019571779092</v>
       </c>
       <c r="K4">
-        <v>9.725176701406614</v>
+        <v>15.75754746916515</v>
       </c>
       <c r="L4">
-        <v>6.465733618347482</v>
+        <v>5.852178749535937</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.754047326270598</v>
       </c>
       <c r="N4">
-        <v>14.15386949735734</v>
+        <v>6.554714794166716</v>
       </c>
       <c r="O4">
-        <v>19.02951525687881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.23269971567133</v>
+      </c>
+      <c r="Q4">
+        <v>15.64621106130105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94642829216285</v>
+        <v>11.68925786224571</v>
       </c>
       <c r="C5">
-        <v>6.325536002444506</v>
+        <v>7.076003161783273</v>
       </c>
       <c r="D5">
-        <v>4.985251909278276</v>
+        <v>5.787379221955943</v>
       </c>
       <c r="E5">
-        <v>7.733028285400841</v>
+        <v>7.965476796727105</v>
       </c>
       <c r="F5">
-        <v>25.1114307452069</v>
+        <v>21.09826177830009</v>
       </c>
       <c r="G5">
-        <v>2.131950358500331</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>23.27808474985875</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.516494128381468</v>
       </c>
       <c r="J5">
-        <v>6.010190487796074</v>
+        <v>9.654336143311665</v>
       </c>
       <c r="K5">
-        <v>9.534273544604911</v>
+        <v>15.78318979698578</v>
       </c>
       <c r="L5">
-        <v>6.435799648125151</v>
+        <v>5.859373918428883</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.58523359032138</v>
       </c>
       <c r="N5">
-        <v>14.20611892099748</v>
+        <v>6.524354546997395</v>
       </c>
       <c r="O5">
-        <v>19.0428567078799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.26772094779909</v>
+      </c>
+      <c r="Q5">
+        <v>15.65778885757061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.90976745646219</v>
+        <v>11.64569338042908</v>
       </c>
       <c r="C6">
-        <v>6.322444399506903</v>
+        <v>7.0742110460661</v>
       </c>
       <c r="D6">
-        <v>4.977975784182574</v>
+        <v>5.779979591485554</v>
       </c>
       <c r="E6">
-        <v>7.731309380087871</v>
+        <v>7.961986951725865</v>
       </c>
       <c r="F6">
-        <v>25.10719330484231</v>
+        <v>21.08833960088364</v>
       </c>
       <c r="G6">
-        <v>2.132158466403341</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>23.26396242148794</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.526824594341984</v>
       </c>
       <c r="J6">
-        <v>6.01208089107835</v>
+        <v>9.65526033488047</v>
       </c>
       <c r="K6">
-        <v>9.502198386999464</v>
+        <v>15.78341389186891</v>
       </c>
       <c r="L6">
-        <v>6.430850877808336</v>
+        <v>5.860156035493128</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.556835393254598</v>
       </c>
       <c r="N6">
-        <v>14.21484020208091</v>
+        <v>6.520968697091083</v>
       </c>
       <c r="O6">
-        <v>19.04525069689986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.27356271223105</v>
+      </c>
+      <c r="Q6">
+        <v>15.65606443786797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.16246100890209</v>
+        <v>11.89818339756183</v>
       </c>
       <c r="C7">
-        <v>6.343880089033322</v>
+        <v>7.120051481077187</v>
       </c>
       <c r="D7">
-        <v>5.028416584245347</v>
+        <v>5.835206113863057</v>
       </c>
       <c r="E7">
-        <v>7.743510181378708</v>
+        <v>7.977126265074959</v>
       </c>
       <c r="F7">
-        <v>25.13806204593553</v>
+        <v>21.10916408822359</v>
       </c>
       <c r="G7">
-        <v>2.130722797708956</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>23.2820277495573</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.484424117361611</v>
       </c>
       <c r="J7">
-        <v>5.999082680337381</v>
+        <v>9.636373669948076</v>
       </c>
       <c r="K7">
-        <v>9.722627307115063</v>
+        <v>15.74667469287827</v>
       </c>
       <c r="L7">
-        <v>6.465328480939181</v>
+        <v>5.851118891874568</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.75164421796933</v>
       </c>
       <c r="N7">
-        <v>14.1545711267467</v>
+        <v>6.558705760230188</v>
       </c>
       <c r="O7">
-        <v>19.02968314433113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.2331947634179</v>
+      </c>
+      <c r="Q7">
+        <v>15.63614156420082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.2321692537663</v>
+        <v>12.96355629291536</v>
       </c>
       <c r="C8">
-        <v>6.437841550269649</v>
+        <v>7.309787514689578</v>
       </c>
       <c r="D8">
-        <v>5.248960710513106</v>
+        <v>6.076380834732096</v>
       </c>
       <c r="E8">
-        <v>7.804048905369972</v>
+        <v>8.051488825786709</v>
       </c>
       <c r="F8">
-        <v>25.31096698391864</v>
+        <v>21.23703468186313</v>
       </c>
       <c r="G8">
-        <v>2.124602833614503</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>23.41447073392696</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.297989566709245</v>
       </c>
       <c r="J8">
-        <v>5.944781226643657</v>
+        <v>9.563628203425353</v>
       </c>
       <c r="K8">
-        <v>10.64075615140065</v>
+        <v>15.60593392719378</v>
       </c>
       <c r="L8">
-        <v>6.620410718510993</v>
+        <v>5.81415614002083</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.56580057925449</v>
       </c>
       <c r="N8">
-        <v>13.89506353913274</v>
+        <v>6.725223680788901</v>
       </c>
       <c r="O8">
-        <v>18.98764477565064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.06008255475191</v>
+      </c>
+      <c r="Q8">
+        <v>15.57249892188463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.15576587534519</v>
+        <v>14.84469505363871</v>
       </c>
       <c r="C9">
-        <v>6.619384031087866</v>
+        <v>7.65420217174235</v>
       </c>
       <c r="D9">
-        <v>5.670054581491782</v>
+        <v>6.537800616144144</v>
       </c>
       <c r="E9">
-        <v>7.947000337496537</v>
+        <v>8.219009105422643</v>
       </c>
       <c r="F9">
-        <v>25.78757953847485</v>
+        <v>21.59304369642049</v>
       </c>
       <c r="G9">
-        <v>2.113344009298553</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>23.8249640323143</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.950921162676173</v>
       </c>
       <c r="J9">
-        <v>5.849360456957109</v>
+        <v>9.45342939147096</v>
       </c>
       <c r="K9">
-        <v>12.24605501089666</v>
+        <v>15.39005663199501</v>
       </c>
       <c r="L9">
-        <v>6.933000986440646</v>
+        <v>5.750153776674959</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.99581547740475</v>
       </c>
       <c r="N9">
-        <v>13.40792159979307</v>
+        <v>7.056972140557003</v>
       </c>
       <c r="O9">
-        <v>19.00767151518101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.73788129064636</v>
+      </c>
+      <c r="Q9">
+        <v>15.5209122300356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.4562448360105</v>
+        <v>16.0774370742861</v>
       </c>
       <c r="C10">
-        <v>6.750743144453028</v>
+        <v>7.906753044045005</v>
       </c>
       <c r="D10">
-        <v>5.969350627398739</v>
+        <v>6.867870020912189</v>
       </c>
       <c r="E10">
-        <v>8.066867143027725</v>
+        <v>8.350215220414077</v>
       </c>
       <c r="F10">
-        <v>26.22616241377337</v>
+        <v>21.89617426897302</v>
       </c>
       <c r="G10">
-        <v>2.105493187246679</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>24.18201688868531</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.72121934272709</v>
       </c>
       <c r="J10">
-        <v>5.786086028663178</v>
+        <v>9.386914967653944</v>
       </c>
       <c r="K10">
-        <v>13.30791000468619</v>
+        <v>15.25204300923372</v>
       </c>
       <c r="L10">
-        <v>7.166007762055465</v>
+        <v>5.706469502918588</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.94336658716792</v>
       </c>
       <c r="N10">
-        <v>13.06184584810199</v>
+        <v>7.308307103429482</v>
       </c>
       <c r="O10">
-        <v>19.09095788730409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.5119395285067</v>
+      </c>
+      <c r="Q10">
+        <v>15.51425736468948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02251613641417</v>
+        <v>16.59818841211392</v>
       </c>
       <c r="C11">
-        <v>6.809995125832476</v>
+        <v>8.036926438524992</v>
       </c>
       <c r="D11">
-        <v>6.102765639643481</v>
+        <v>7.016899356053227</v>
       </c>
       <c r="E11">
-        <v>8.124616916138946</v>
+        <v>8.407333308391747</v>
       </c>
       <c r="F11">
-        <v>26.44571540567091</v>
+        <v>22.02120739219739</v>
       </c>
       <c r="G11">
-        <v>2.10200573002961</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>24.32049413285559</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.637962174080636</v>
       </c>
       <c r="J11">
-        <v>5.758807370535759</v>
+        <v>9.353954162525973</v>
       </c>
       <c r="K11">
-        <v>13.76582739308478</v>
+        <v>15.17700381582003</v>
       </c>
       <c r="L11">
-        <v>7.272371535996941</v>
+        <v>5.685624164232786</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.35177679370481</v>
       </c>
       <c r="N11">
-        <v>12.90664002734711</v>
+        <v>7.429666900899856</v>
       </c>
       <c r="O11">
-        <v>19.14503801621503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.41246189603811</v>
+      </c>
+      <c r="Q11">
+        <v>15.5033037085275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.23326253099156</v>
+        <v>16.80674664020892</v>
       </c>
       <c r="C12">
-        <v>6.832354690282508</v>
+        <v>8.077180767501153</v>
       </c>
       <c r="D12">
-        <v>6.15285402070963</v>
+        <v>7.072017599725261</v>
       </c>
       <c r="E12">
-        <v>8.146946938034809</v>
+        <v>8.431648472509243</v>
       </c>
       <c r="F12">
-        <v>26.53179413724732</v>
+        <v>22.08285348172061</v>
       </c>
       <c r="G12">
-        <v>2.100696553559684</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>24.39624728497662</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.598604781017983</v>
       </c>
       <c r="J12">
-        <v>5.748696464502814</v>
+        <v>9.345495096742049</v>
       </c>
       <c r="K12">
-        <v>13.93564972895603</v>
+        <v>15.15923907096871</v>
       </c>
       <c r="L12">
-        <v>7.312673255485197</v>
+        <v>5.6788159137992</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.50329541263549</v>
       </c>
       <c r="N12">
-        <v>12.84815862321286</v>
+        <v>7.472299058329132</v>
       </c>
       <c r="O12">
-        <v>19.16795085521985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.37460893953776</v>
+      </c>
+      <c r="Q12">
+        <v>15.50916585194386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.18803911975772</v>
+        <v>16.76393866921604</v>
       </c>
       <c r="C13">
-        <v>6.827542700850037</v>
+        <v>8.066745324277221</v>
       </c>
       <c r="D13">
-        <v>6.142086422879958</v>
+        <v>7.059995025949481</v>
       </c>
       <c r="E13">
-        <v>8.142117280328465</v>
+        <v>8.426883269869222</v>
       </c>
       <c r="F13">
-        <v>26.51312398831156</v>
+        <v>22.07204728127332</v>
       </c>
       <c r="G13">
-        <v>2.100978009242914</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>24.38403617666125</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.605214513547664</v>
       </c>
       <c r="J13">
-        <v>5.750864249261332</v>
+        <v>9.347986459729734</v>
       </c>
       <c r="K13">
-        <v>13.89923417943631</v>
+        <v>15.16498373918841</v>
       </c>
       <c r="L13">
-        <v>7.303992926610432</v>
+        <v>5.680470628472201</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.47082580531691</v>
       </c>
       <c r="N13">
-        <v>12.86074113822243</v>
+        <v>7.462441873367343</v>
       </c>
       <c r="O13">
-        <v>19.16290625034899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.38263582355378</v>
+      </c>
+      <c r="Q13">
+        <v>15.50960030852697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.03992849296996</v>
+        <v>16.61625479016842</v>
       </c>
       <c r="C14">
-        <v>6.811836250109855</v>
+        <v>8.039486063389573</v>
       </c>
       <c r="D14">
-        <v>6.106895326488013</v>
+        <v>7.021369444034015</v>
       </c>
       <c r="E14">
-        <v>8.126444784929454</v>
+        <v>8.409534134799996</v>
       </c>
       <c r="F14">
-        <v>26.45273794972076</v>
+        <v>22.02732909613976</v>
       </c>
       <c r="G14">
-        <v>2.101897797538308</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>24.32847144775123</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.633927675970467</v>
       </c>
       <c r="J14">
-        <v>5.757971137221393</v>
+        <v>9.353542078919116</v>
       </c>
       <c r="K14">
-        <v>13.77987035522555</v>
+        <v>15.17635619259046</v>
       </c>
       <c r="L14">
-        <v>7.27568685847644</v>
+        <v>5.685144009240931</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.36431514595913</v>
       </c>
       <c r="N14">
-        <v>12.90182305021649</v>
+        <v>7.432885880308551</v>
       </c>
       <c r="O14">
-        <v>19.14687369059929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.40929502229997</v>
+      </c>
+      <c r="Q14">
+        <v>15.50450605378893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94872504979037</v>
+        <v>16.52136649296569</v>
       </c>
       <c r="C15">
-        <v>6.802205304134869</v>
+        <v>8.026280683798607</v>
       </c>
       <c r="D15">
-        <v>6.085282292048799</v>
+        <v>6.99799479648347</v>
       </c>
       <c r="E15">
-        <v>8.116904958270585</v>
+        <v>8.397986363464263</v>
       </c>
       <c r="F15">
-        <v>26.41613407340126</v>
+        <v>21.99511867895673</v>
       </c>
       <c r="G15">
-        <v>2.102462666277101</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>24.28641218896763</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.655285182151101</v>
       </c>
       <c r="J15">
-        <v>5.762352901330896</v>
+        <v>9.355650409914007</v>
       </c>
       <c r="K15">
-        <v>13.70629120568845</v>
+        <v>15.17958518256302</v>
       </c>
       <c r="L15">
-        <v>7.258350886600651</v>
+        <v>5.68764019711689</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.29861597608847</v>
       </c>
       <c r="N15">
-        <v>12.92702402010744</v>
+        <v>7.416127303512409</v>
       </c>
       <c r="O15">
-        <v>19.1373733582345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.42587667068038</v>
+      </c>
+      <c r="Q15">
+        <v>15.49809306614195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.41872369488311</v>
+        <v>16.01073529528682</v>
       </c>
       <c r="C16">
-        <v>6.746860271003935</v>
+        <v>7.927909665845369</v>
       </c>
       <c r="D16">
-        <v>5.960573084418283</v>
+        <v>6.861015058173296</v>
       </c>
       <c r="E16">
-        <v>8.063157743335433</v>
+        <v>8.338427634883327</v>
       </c>
       <c r="F16">
-        <v>26.21222236825292</v>
+        <v>21.84563553610329</v>
       </c>
       <c r="G16">
-        <v>2.105722737299802</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>24.10274113932038</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.755787674684514</v>
       </c>
       <c r="J16">
-        <v>5.787899247094311</v>
+        <v>9.377603216151119</v>
       </c>
       <c r="K16">
-        <v>13.27748110559956</v>
+        <v>15.22455678433503</v>
       </c>
       <c r="L16">
-        <v>7.159061532744721</v>
+        <v>5.704621617308547</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.91590366627146</v>
       </c>
       <c r="N16">
-        <v>13.07203131314794</v>
+        <v>7.311784335556254</v>
       </c>
       <c r="O16">
-        <v>19.0877584906565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.52012783370758</v>
+      </c>
+      <c r="Q16">
+        <v>15.48593353278846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.08706004712189</v>
+        <v>15.69273056053452</v>
       </c>
       <c r="C17">
-        <v>6.712774772015137</v>
+        <v>7.867163320452867</v>
       </c>
       <c r="D17">
-        <v>5.883337418097507</v>
+        <v>6.776249097710509</v>
       </c>
       <c r="E17">
-        <v>8.031009592652115</v>
+        <v>8.302404659089241</v>
       </c>
       <c r="F17">
-        <v>26.09230421422787</v>
+        <v>21.75685396967278</v>
       </c>
       <c r="G17">
-        <v>2.107743749455484</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.99422702394721</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.81865479886707</v>
       </c>
       <c r="J17">
-        <v>5.803958293965702</v>
+        <v>9.392105777568538</v>
       </c>
       <c r="K17">
-        <v>13.00800658591666</v>
+        <v>15.2538738008628</v>
       </c>
       <c r="L17">
-        <v>7.098223827596899</v>
+        <v>5.715265186517751</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.67536564794238</v>
       </c>
       <c r="N17">
-        <v>13.16153899069478</v>
+        <v>7.247925211815325</v>
       </c>
       <c r="O17">
-        <v>19.06154397312479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.57848560155851</v>
+      </c>
+      <c r="Q17">
+        <v>15.48079456482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.89391390987635</v>
+        <v>15.51703977126143</v>
       </c>
       <c r="C18">
-        <v>6.693122548554749</v>
+        <v>7.822953740174536</v>
       </c>
       <c r="D18">
-        <v>5.838657979488262</v>
+        <v>6.726327840219878</v>
       </c>
       <c r="E18">
-        <v>8.012822224305333</v>
+        <v>8.284346501133049</v>
       </c>
       <c r="F18">
-        <v>26.02521364983051</v>
+        <v>21.71984978486813</v>
       </c>
       <c r="G18">
-        <v>2.108914120386003</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.95485456903782</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.845683581252638</v>
       </c>
       <c r="J18">
-        <v>5.813336543054157</v>
+        <v>9.404316675156734</v>
       </c>
       <c r="K18">
-        <v>12.85064491608261</v>
+        <v>15.28118266984634</v>
       </c>
       <c r="L18">
-        <v>7.063267822389322</v>
+        <v>5.722449459466103</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.53499783295429</v>
       </c>
       <c r="N18">
-        <v>13.21323273710886</v>
+        <v>7.207753689117722</v>
       </c>
       <c r="O18">
-        <v>19.04798396309119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.611791450444</v>
+      </c>
+      <c r="Q18">
+        <v>15.48753891542892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.82811056347732</v>
+        <v>15.44921472020631</v>
       </c>
       <c r="C19">
-        <v>6.686460720909084</v>
+        <v>7.814986790603277</v>
       </c>
       <c r="D19">
-        <v>5.823487692447654</v>
+        <v>6.710085971243002</v>
       </c>
       <c r="E19">
-        <v>8.006716450410153</v>
+        <v>8.276363064260041</v>
       </c>
       <c r="F19">
-        <v>26.00281954121236</v>
+        <v>21.69749064269096</v>
       </c>
       <c r="G19">
-        <v>2.109311769581982</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.92519221358827</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.86222056655265</v>
       </c>
       <c r="J19">
-        <v>5.816536090685609</v>
+        <v>9.405818102540167</v>
       </c>
       <c r="K19">
-        <v>12.79695748454061</v>
+        <v>15.28295520466855</v>
       </c>
       <c r="L19">
-        <v>7.051439452412869</v>
+        <v>5.724140950886631</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.48703356355186</v>
       </c>
       <c r="N19">
-        <v>13.23077247977425</v>
+        <v>7.19686767833698</v>
       </c>
       <c r="O19">
-        <v>19.04365025020672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.62345854862352</v>
+      </c>
+      <c r="Q19">
+        <v>15.4831288002944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.12261313031924</v>
+        <v>15.7276782458849</v>
       </c>
       <c r="C20">
-        <v>6.716408152166567</v>
+        <v>7.872930497989807</v>
       </c>
       <c r="D20">
-        <v>5.89158603547476</v>
+        <v>6.785228225544043</v>
       </c>
       <c r="E20">
-        <v>8.034400429453354</v>
+        <v>8.30641268175399</v>
       </c>
       <c r="F20">
-        <v>26.10487437198203</v>
+        <v>21.76721054883609</v>
       </c>
       <c r="G20">
-        <v>2.107527792066922</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>24.00730492171233</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.811152755105492</v>
       </c>
       <c r="J20">
-        <v>5.8022341182149</v>
+        <v>9.390797430820681</v>
       </c>
       <c r="K20">
-        <v>13.03693736631799</v>
+        <v>15.25145928018326</v>
       </c>
       <c r="L20">
-        <v>7.104696570087819</v>
+        <v>5.714200317322924</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.70119776262188</v>
       </c>
       <c r="N20">
-        <v>13.15198907741694</v>
+        <v>7.25444274049477</v>
       </c>
       <c r="O20">
-        <v>19.06417669163506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.57221511997412</v>
+      </c>
+      <c r="Q20">
+        <v>15.48194961066795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.08353255847783</v>
+        <v>16.6491580638044</v>
       </c>
       <c r="C21">
-        <v>6.816451768882299</v>
+        <v>8.057480018317511</v>
       </c>
       <c r="D21">
-        <v>6.117243844862055</v>
+        <v>7.033695626775019</v>
       </c>
       <c r="E21">
-        <v>8.13103567063771</v>
+        <v>8.411909843802857</v>
       </c>
       <c r="F21">
-        <v>26.47039460766531</v>
+        <v>22.02615743147653</v>
       </c>
       <c r="G21">
-        <v>2.101627327845764</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>24.32112731307701</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.636065789273295</v>
       </c>
       <c r="J21">
-        <v>5.755877708957915</v>
+        <v>9.347996465156349</v>
       </c>
       <c r="K21">
-        <v>13.8150273236011</v>
+        <v>15.16200480539849</v>
       </c>
       <c r="L21">
-        <v>7.284000603615744</v>
+        <v>5.682681296063172</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.39558218893657</v>
       </c>
       <c r="N21">
-        <v>12.88974861570929</v>
+        <v>7.445348304122167</v>
       </c>
       <c r="O21">
-        <v>19.15151595230663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.40207718858275</v>
+      </c>
+      <c r="Q21">
+        <v>15.49612645671075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.6900411633908</v>
+        <v>17.25759251223694</v>
       </c>
       <c r="C22">
-        <v>6.881380098067198</v>
+        <v>8.164108623745655</v>
       </c>
       <c r="D22">
-        <v>6.262185779855763</v>
+        <v>7.192271166836006</v>
       </c>
       <c r="E22">
-        <v>8.196880827676118</v>
+        <v>8.485935448508211</v>
       </c>
       <c r="F22">
-        <v>26.72643544568292</v>
+        <v>22.22308332254004</v>
       </c>
       <c r="G22">
-        <v>2.097837446571887</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>24.56991162614379</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.512011446316946</v>
       </c>
       <c r="J22">
-        <v>5.7268585808572</v>
+        <v>9.328448790763732</v>
       </c>
       <c r="K22">
-        <v>14.30269778942492</v>
+        <v>15.12330880303338</v>
       </c>
       <c r="L22">
-        <v>7.401314510918722</v>
+        <v>5.664201299070569</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.83069538656023</v>
       </c>
       <c r="N22">
-        <v>12.72004497310847</v>
+        <v>7.565677193468931</v>
       </c>
       <c r="O22">
-        <v>19.22283187437221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.29183132324918</v>
+      </c>
+      <c r="Q22">
+        <v>15.52567844059224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36831510066492</v>
+        <v>16.94821479364825</v>
       </c>
       <c r="C23">
-        <v>6.846769965797758</v>
+        <v>8.095348736399769</v>
       </c>
       <c r="D23">
-        <v>6.185071532904328</v>
+        <v>7.106729143016342</v>
       </c>
       <c r="E23">
-        <v>8.161492763567212</v>
+        <v>8.449542797486545</v>
       </c>
       <c r="F23">
-        <v>26.58819471625478</v>
+        <v>22.13424703232828</v>
       </c>
       <c r="G23">
-        <v>2.099854314999404</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24.46423344745576</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.56545940758884</v>
       </c>
       <c r="J23">
-        <v>5.742228846464716</v>
+        <v>9.343254572345179</v>
       </c>
       <c r="K23">
-        <v>14.04431596243584</v>
+        <v>15.15666573401376</v>
       </c>
       <c r="L23">
-        <v>7.338699127159018</v>
+        <v>5.675305924033417</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.60031806523342</v>
       </c>
       <c r="N23">
-        <v>12.81047459637885</v>
+        <v>7.49689967587934</v>
       </c>
       <c r="O23">
-        <v>19.18343217837556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.34974958998602</v>
+      </c>
+      <c r="Q23">
+        <v>15.52102773137469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.10654726583209</v>
+        <v>15.73317762173568</v>
       </c>
       <c r="C24">
-        <v>6.714765675058451</v>
+        <v>7.851140044026363</v>
       </c>
       <c r="D24">
-        <v>5.887857691013147</v>
+        <v>6.779255620858058</v>
       </c>
       <c r="E24">
-        <v>8.032866513041313</v>
+        <v>8.309809690984167</v>
       </c>
       <c r="F24">
-        <v>26.09918563954367</v>
+        <v>21.78994259307982</v>
       </c>
       <c r="G24">
-        <v>2.107625399991827</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>24.04681146080195</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.795146187135937</v>
       </c>
       <c r="J24">
-        <v>5.803013164466927</v>
+        <v>9.398786765560942</v>
       </c>
       <c r="K24">
-        <v>13.023865354159</v>
+        <v>15.27336344999598</v>
       </c>
       <c r="L24">
-        <v>7.10177017744954</v>
+        <v>5.71675249867309</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.68973195297958</v>
       </c>
       <c r="N24">
-        <v>13.15630586038674</v>
+        <v>7.244117798090103</v>
       </c>
       <c r="O24">
-        <v>19.06298174095785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.57404911245396</v>
+      </c>
+      <c r="Q24">
+        <v>15.5001717496339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.65481882109329</v>
+        <v>14.33853905845026</v>
       </c>
       <c r="C25">
-        <v>6.570601830131677</v>
+        <v>7.580804041099379</v>
       </c>
       <c r="D25">
-        <v>5.557701957533133</v>
+        <v>6.41635923243679</v>
       </c>
       <c r="E25">
-        <v>7.905723138655718</v>
+        <v>8.166832011235375</v>
       </c>
       <c r="F25">
-        <v>25.64341861222367</v>
+        <v>21.46112562590644</v>
       </c>
       <c r="G25">
-        <v>2.116313505254482</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>23.65729553115829</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.057789999568285</v>
       </c>
       <c r="J25">
-        <v>5.873981714799441</v>
+        <v>9.47322790508021</v>
       </c>
       <c r="K25">
-        <v>11.832540448649</v>
+        <v>15.42375665855583</v>
       </c>
       <c r="L25">
-        <v>6.847721010525166</v>
+        <v>5.764749572465595</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.62677334071278</v>
       </c>
       <c r="N25">
-        <v>13.53752118534786</v>
+        <v>6.973525139874987</v>
       </c>
       <c r="O25">
-        <v>18.99065263915904</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.82386432658453</v>
+      </c>
+      <c r="Q25">
+        <v>15.5103779876351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.25558484697136</v>
+        <v>12.98024628148959</v>
       </c>
       <c r="C2">
-        <v>7.345853142408135</v>
+        <v>7.110834836528714</v>
       </c>
       <c r="D2">
-        <v>6.13961080002772</v>
+        <v>6.156990321236417</v>
       </c>
       <c r="E2">
-        <v>8.076839936522955</v>
+        <v>7.945157587053204</v>
       </c>
       <c r="F2">
-        <v>21.29833363724492</v>
+        <v>20.81464819829267</v>
       </c>
       <c r="G2">
-        <v>23.49293160747434</v>
+        <v>22.28399683114219</v>
       </c>
       <c r="I2">
-        <v>3.237728696301764</v>
+        <v>3.104707859566906</v>
       </c>
       <c r="J2">
-        <v>9.551227098905022</v>
+        <v>9.669525592338307</v>
       </c>
       <c r="K2">
-        <v>15.58624683406972</v>
+        <v>15.07583380740672</v>
       </c>
       <c r="L2">
-        <v>5.806183276194467</v>
+        <v>12.36860032804266</v>
       </c>
       <c r="M2">
-        <v>10.77536778758028</v>
+        <v>9.91062619389842</v>
       </c>
       <c r="N2">
-        <v>6.76528457397377</v>
+        <v>5.712009592965093</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.80154332965764</v>
       </c>
       <c r="P2">
-        <v>13.0140867107188</v>
+        <v>6.898776802066633</v>
       </c>
       <c r="Q2">
-        <v>15.57322890257674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.89542707223895</v>
+      </c>
+      <c r="S2">
+        <v>15.20987639362754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.44342974974594</v>
+        <v>12.19367581794045</v>
       </c>
       <c r="C3">
-        <v>7.20039414444178</v>
+        <v>6.898457598491446</v>
       </c>
       <c r="D3">
-        <v>5.951153066659439</v>
+        <v>5.965873174904111</v>
       </c>
       <c r="E3">
-        <v>8.015670693106104</v>
+        <v>7.888121646706288</v>
       </c>
       <c r="F3">
-        <v>21.18487859090309</v>
+        <v>20.72342797334638</v>
       </c>
       <c r="G3">
-        <v>23.37028050876414</v>
+        <v>22.24145265668534</v>
       </c>
       <c r="I3">
-        <v>3.382096836089671</v>
+        <v>3.233756855802399</v>
       </c>
       <c r="J3">
-        <v>9.604427109669759</v>
+        <v>9.692977868471191</v>
       </c>
       <c r="K3">
-        <v>15.68934398236789</v>
+        <v>15.18906671866677</v>
       </c>
       <c r="L3">
-        <v>5.83417490776943</v>
+        <v>12.51832875406542</v>
       </c>
       <c r="M3">
-        <v>10.15547782864924</v>
+        <v>9.964012013273159</v>
       </c>
       <c r="N3">
-        <v>6.633690573071585</v>
+        <v>5.739206199676363</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.18615991508292</v>
       </c>
       <c r="P3">
-        <v>13.14813786884879</v>
+        <v>6.758817647083945</v>
       </c>
       <c r="Q3">
-        <v>15.61430589507225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.0162832647884</v>
+      </c>
+      <c r="S3">
+        <v>15.26296962442557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.91590046184054</v>
+        <v>11.68162245547562</v>
       </c>
       <c r="C4">
-        <v>7.109977447931468</v>
+        <v>6.766362912159564</v>
       </c>
       <c r="D4">
-        <v>5.834626117622392</v>
+        <v>5.847700809077732</v>
       </c>
       <c r="E4">
-        <v>7.980244460042127</v>
+        <v>7.854997444508727</v>
       </c>
       <c r="F4">
-        <v>21.12490658079081</v>
+        <v>20.67568322734733</v>
       </c>
       <c r="G4">
-        <v>23.30794218459184</v>
+        <v>22.2293861514586</v>
       </c>
       <c r="I4">
-        <v>3.474958623811542</v>
+        <v>3.317076581299675</v>
       </c>
       <c r="J4">
-        <v>9.64019571779092</v>
+        <v>9.708852498918997</v>
       </c>
       <c r="K4">
-        <v>15.75754746916515</v>
+        <v>15.26231926903686</v>
       </c>
       <c r="L4">
-        <v>5.852178749535937</v>
+        <v>12.61276550512364</v>
       </c>
       <c r="M4">
-        <v>9.754047326270598</v>
+        <v>10.01472688387508</v>
       </c>
       <c r="N4">
-        <v>6.554714794166716</v>
+        <v>5.756602340491057</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.787740824194097</v>
       </c>
       <c r="P4">
-        <v>13.23269971567133</v>
+        <v>6.674847724149452</v>
       </c>
       <c r="Q4">
-        <v>15.64621106130105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.09288087286662</v>
+      </c>
+      <c r="S4">
+        <v>15.30116023378817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68925786224571</v>
+        <v>11.46110950173379</v>
       </c>
       <c r="C5">
-        <v>7.076003161783273</v>
+        <v>6.715985710146263</v>
       </c>
       <c r="D5">
-        <v>5.787379221955943</v>
+        <v>5.799790736950581</v>
       </c>
       <c r="E5">
-        <v>7.965476796727105</v>
+        <v>7.841095556846494</v>
       </c>
       <c r="F5">
-        <v>21.09826177830009</v>
+        <v>20.65359278173733</v>
       </c>
       <c r="G5">
-        <v>23.27808474985875</v>
+        <v>22.22014327209117</v>
       </c>
       <c r="I5">
-        <v>3.516494128381468</v>
+        <v>3.355144413375683</v>
       </c>
       <c r="J5">
-        <v>9.654336143311665</v>
+        <v>9.714423071358423</v>
       </c>
       <c r="K5">
-        <v>15.78318979698578</v>
+        <v>15.28973820112738</v>
       </c>
       <c r="L5">
-        <v>5.859373918428883</v>
+        <v>12.64848475939006</v>
       </c>
       <c r="M5">
-        <v>9.58523359032138</v>
+        <v>10.0382021435017</v>
       </c>
       <c r="N5">
-        <v>6.524354546997395</v>
+        <v>5.763522277152547</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.620226287043177</v>
       </c>
       <c r="P5">
-        <v>13.26772094779909</v>
+        <v>6.642508508680716</v>
       </c>
       <c r="Q5">
-        <v>15.65778885757061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.12473519153238</v>
+      </c>
+      <c r="S5">
+        <v>15.31499841707545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64569338042908</v>
+        <v>11.41844975218592</v>
       </c>
       <c r="C6">
-        <v>7.0742110460661</v>
+        <v>6.712320740461754</v>
       </c>
       <c r="D6">
-        <v>5.779979591485554</v>
+        <v>5.792290020153379</v>
       </c>
       <c r="E6">
-        <v>7.961986951725865</v>
+        <v>7.837730943617963</v>
       </c>
       <c r="F6">
-        <v>21.08833960088364</v>
+        <v>20.64432272245677</v>
       </c>
       <c r="G6">
-        <v>23.26396242148794</v>
+        <v>22.20933919233861</v>
       </c>
       <c r="I6">
-        <v>3.526824594341984</v>
+        <v>3.365498062598529</v>
       </c>
       <c r="J6">
-        <v>9.65526033488047</v>
+        <v>9.713823024445299</v>
       </c>
       <c r="K6">
-        <v>15.78341389186891</v>
+        <v>15.29024953863257</v>
       </c>
       <c r="L6">
-        <v>5.860156035493128</v>
+        <v>12.65030821033818</v>
       </c>
       <c r="M6">
-        <v>9.556835393254598</v>
+        <v>10.04035631035646</v>
       </c>
       <c r="N6">
-        <v>6.520968697091083</v>
+        <v>5.764259767162164</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.592053552928791</v>
       </c>
       <c r="P6">
-        <v>13.27356271223105</v>
+        <v>6.638813732481584</v>
       </c>
       <c r="Q6">
-        <v>15.65606443786797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.13011191995276</v>
+      </c>
+      <c r="S6">
+        <v>15.31359529308626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.89818339756183</v>
+        <v>11.6610202674551</v>
       </c>
       <c r="C7">
-        <v>7.120051481077187</v>
+        <v>6.775199675999444</v>
       </c>
       <c r="D7">
-        <v>5.835206113863057</v>
+        <v>5.85122151611055</v>
       </c>
       <c r="E7">
-        <v>7.977126265074959</v>
+        <v>7.852994235988074</v>
       </c>
       <c r="F7">
-        <v>21.10916408822359</v>
+        <v>20.65089348322246</v>
       </c>
       <c r="G7">
-        <v>23.2820277495573</v>
+        <v>22.27297875452815</v>
       </c>
       <c r="I7">
-        <v>3.484424117361611</v>
+        <v>3.328545855643722</v>
       </c>
       <c r="J7">
-        <v>9.636373669948076</v>
+        <v>9.675605389909119</v>
       </c>
       <c r="K7">
-        <v>15.74667469287827</v>
+        <v>15.24748076670662</v>
       </c>
       <c r="L7">
-        <v>5.851118891874568</v>
+        <v>12.59820443867807</v>
       </c>
       <c r="M7">
-        <v>9.75164421796933</v>
+        <v>10.00712808170834</v>
       </c>
       <c r="N7">
-        <v>6.558705760230188</v>
+        <v>5.755503256239866</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.781689431415074</v>
       </c>
       <c r="P7">
-        <v>13.2331947634179</v>
+        <v>6.678593203417235</v>
       </c>
       <c r="Q7">
-        <v>15.63614156420082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.09366351583524</v>
+      </c>
+      <c r="S7">
+        <v>15.28457735518832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.96355629291536</v>
+        <v>12.68846097061505</v>
       </c>
       <c r="C8">
-        <v>7.309787514689578</v>
+        <v>7.044011171535248</v>
       </c>
       <c r="D8">
-        <v>6.076380834732096</v>
+        <v>6.102257936025297</v>
       </c>
       <c r="E8">
-        <v>8.051488825786709</v>
+        <v>7.925015517450092</v>
       </c>
       <c r="F8">
-        <v>21.23703468186313</v>
+        <v>20.73179237983292</v>
       </c>
       <c r="G8">
-        <v>23.41447073392696</v>
+        <v>22.46422100709064</v>
       </c>
       <c r="I8">
-        <v>3.297989566709245</v>
+        <v>3.163185657980511</v>
       </c>
       <c r="J8">
-        <v>9.563628203425353</v>
+        <v>9.576876781498738</v>
       </c>
       <c r="K8">
-        <v>15.60593392719378</v>
+        <v>15.08614034358552</v>
       </c>
       <c r="L8">
-        <v>5.81415614002083</v>
+        <v>12.39436302158712</v>
       </c>
       <c r="M8">
-        <v>10.56580057925449</v>
+        <v>9.907975877631909</v>
       </c>
       <c r="N8">
-        <v>6.725223680788901</v>
+        <v>5.719619341131702</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.58210181092736</v>
       </c>
       <c r="P8">
-        <v>13.06008255475191</v>
+        <v>6.854964198902811</v>
       </c>
       <c r="Q8">
-        <v>15.57249892188463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.93793072239017</v>
+      </c>
+      <c r="S8">
+        <v>15.19208293450849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.84469505363871</v>
+        <v>14.50467642329884</v>
       </c>
       <c r="C9">
-        <v>7.65420217174235</v>
+        <v>7.545701824305094</v>
       </c>
       <c r="D9">
-        <v>6.537800616144144</v>
+        <v>6.571894400880632</v>
       </c>
       <c r="E9">
-        <v>8.219009105422643</v>
+        <v>8.081968524398832</v>
       </c>
       <c r="F9">
-        <v>21.59304369642049</v>
+        <v>21.01740228662082</v>
       </c>
       <c r="G9">
-        <v>23.8249640323143</v>
+        <v>22.74395005554949</v>
       </c>
       <c r="I9">
-        <v>2.950921162676173</v>
+        <v>2.852167607375441</v>
       </c>
       <c r="J9">
-        <v>9.45342939147096</v>
+        <v>9.505537342331422</v>
       </c>
       <c r="K9">
-        <v>15.39005663199501</v>
+        <v>14.83449893611521</v>
       </c>
       <c r="L9">
-        <v>5.750153776674959</v>
+        <v>12.04624353508751</v>
       </c>
       <c r="M9">
-        <v>11.99581547740475</v>
+        <v>9.878338683950627</v>
       </c>
       <c r="N9">
-        <v>7.056972140557003</v>
+        <v>5.656900403299392</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.00036644209962</v>
       </c>
       <c r="P9">
-        <v>12.73788129064636</v>
+        <v>7.207762998681192</v>
       </c>
       <c r="Q9">
-        <v>15.5209122300356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.6501521731765</v>
+      </c>
+      <c r="S9">
+        <v>15.09854774178884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.0774370742861</v>
+        <v>15.72619017357436</v>
       </c>
       <c r="C10">
-        <v>7.906753044045005</v>
+        <v>7.891949946619087</v>
       </c>
       <c r="D10">
-        <v>6.867870020912189</v>
+        <v>6.922439512947835</v>
       </c>
       <c r="E10">
-        <v>8.350215220414077</v>
+        <v>8.210855345652639</v>
       </c>
       <c r="F10">
-        <v>21.89617426897302</v>
+        <v>21.21232244022655</v>
       </c>
       <c r="G10">
-        <v>24.18201688868531</v>
+        <v>23.41759530112137</v>
       </c>
       <c r="I10">
-        <v>2.72121934272709</v>
+        <v>2.651628035515576</v>
       </c>
       <c r="J10">
-        <v>9.386914967653944</v>
+        <v>9.29971437734245</v>
       </c>
       <c r="K10">
-        <v>15.25204300923372</v>
+        <v>14.64069890383821</v>
       </c>
       <c r="L10">
-        <v>5.706469502918588</v>
+        <v>11.78168931989094</v>
       </c>
       <c r="M10">
-        <v>12.94336658716792</v>
+        <v>9.922431224997252</v>
       </c>
       <c r="N10">
-        <v>7.308307103429482</v>
+        <v>5.613384502558776</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.92330686511123</v>
       </c>
       <c r="P10">
-        <v>12.5119395285067</v>
+        <v>7.473074069135942</v>
       </c>
       <c r="Q10">
-        <v>15.51425736468948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.45338048690231</v>
+      </c>
+      <c r="S10">
+        <v>15.01794048480757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.59818841211392</v>
+        <v>16.21103259002557</v>
       </c>
       <c r="C11">
-        <v>8.036926438524992</v>
+        <v>8.035951489162299</v>
       </c>
       <c r="D11">
-        <v>7.016899356053227</v>
+        <v>7.106272514511219</v>
       </c>
       <c r="E11">
-        <v>8.407333308391747</v>
+        <v>8.278273738808291</v>
       </c>
       <c r="F11">
-        <v>22.02120739219739</v>
+        <v>21.1986546550227</v>
       </c>
       <c r="G11">
-        <v>24.32049413285559</v>
+        <v>24.4274915385824</v>
       </c>
       <c r="I11">
-        <v>2.637962174080636</v>
+        <v>2.588069152560044</v>
       </c>
       <c r="J11">
-        <v>9.353954162525973</v>
+        <v>8.952113762154045</v>
       </c>
       <c r="K11">
-        <v>15.17700381582003</v>
+        <v>14.49843468141678</v>
       </c>
       <c r="L11">
-        <v>5.685624164232786</v>
+        <v>11.62494114205746</v>
       </c>
       <c r="M11">
-        <v>13.35177679370481</v>
+        <v>9.910561206066545</v>
       </c>
       <c r="N11">
-        <v>7.429666900899856</v>
+        <v>5.592248405958091</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.29236524023501</v>
       </c>
       <c r="P11">
-        <v>12.41246189603811</v>
+        <v>7.597844638237361</v>
       </c>
       <c r="Q11">
-        <v>15.5033037085275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.37343029780791</v>
+      </c>
+      <c r="S11">
+        <v>14.90586611843618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.80674664020892</v>
+        <v>16.39717183835967</v>
       </c>
       <c r="C12">
-        <v>8.077180767501153</v>
+        <v>8.075876667286391</v>
       </c>
       <c r="D12">
-        <v>7.072017599725261</v>
+        <v>7.177627567238205</v>
       </c>
       <c r="E12">
-        <v>8.431648472509243</v>
+        <v>8.308003726156217</v>
       </c>
       <c r="F12">
-        <v>22.08285348172061</v>
+        <v>21.19634728262103</v>
       </c>
       <c r="G12">
-        <v>24.39624728497662</v>
+        <v>24.9313397801422</v>
       </c>
       <c r="I12">
-        <v>2.598604781017983</v>
+        <v>2.554908976860033</v>
       </c>
       <c r="J12">
-        <v>9.345495096742049</v>
+        <v>8.805584542839677</v>
       </c>
       <c r="K12">
-        <v>15.15923907096871</v>
+        <v>14.44917787209084</v>
       </c>
       <c r="L12">
-        <v>5.6788159137992</v>
+        <v>11.56962007487895</v>
       </c>
       <c r="M12">
-        <v>13.50329541263549</v>
+        <v>9.91135367858783</v>
       </c>
       <c r="N12">
-        <v>7.472299058329132</v>
+        <v>5.585244244561573</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.42579843832418</v>
       </c>
       <c r="P12">
-        <v>12.37460893953776</v>
+        <v>7.641312026060643</v>
       </c>
       <c r="Q12">
-        <v>15.50916585194386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.34358290248256</v>
+      </c>
+      <c r="S12">
+        <v>14.86447078413314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76393866921604</v>
+        <v>16.35929877694333</v>
       </c>
       <c r="C13">
-        <v>8.066745324277221</v>
+        <v>8.06533210846233</v>
       </c>
       <c r="D13">
-        <v>7.059995025949481</v>
+        <v>7.161967037176689</v>
       </c>
       <c r="E13">
-        <v>8.426883269869222</v>
+        <v>8.302007965021224</v>
       </c>
       <c r="F13">
-        <v>22.07204728127332</v>
+        <v>21.19981869814707</v>
       </c>
       <c r="G13">
-        <v>24.38403617666125</v>
+        <v>24.82266700814616</v>
       </c>
       <c r="I13">
-        <v>2.605214513547664</v>
+        <v>2.559834963888378</v>
       </c>
       <c r="J13">
-        <v>9.347986459729734</v>
+        <v>8.838152169587451</v>
       </c>
       <c r="K13">
-        <v>15.16498373918841</v>
+        <v>14.46185159062238</v>
       </c>
       <c r="L13">
-        <v>5.680470628472201</v>
+        <v>11.58289590129518</v>
       </c>
       <c r="M13">
-        <v>13.47082580531691</v>
+        <v>9.912898642757074</v>
       </c>
       <c r="N13">
-        <v>7.462441873367343</v>
+        <v>5.586934757394378</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.39736071588652</v>
       </c>
       <c r="P13">
-        <v>12.38263582355378</v>
+        <v>7.631285834982883</v>
       </c>
       <c r="Q13">
-        <v>15.50960030852697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.34976384745591</v>
+      </c>
+      <c r="S13">
+        <v>14.8754433918267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.61625479016842</v>
+        <v>16.2273024025775</v>
       </c>
       <c r="C14">
-        <v>8.039486063389573</v>
+        <v>8.038408564774493</v>
       </c>
       <c r="D14">
-        <v>7.021369444034015</v>
+        <v>7.112015048492534</v>
       </c>
       <c r="E14">
-        <v>8.409534134799996</v>
+        <v>8.280891059532639</v>
       </c>
       <c r="F14">
-        <v>22.02732909613976</v>
+        <v>21.19974266310645</v>
       </c>
       <c r="G14">
-        <v>24.32847144775123</v>
+        <v>24.46876714352792</v>
       </c>
       <c r="I14">
-        <v>2.633927675970467</v>
+        <v>2.584394277663372</v>
       </c>
       <c r="J14">
-        <v>9.353542078919116</v>
+        <v>8.940543914742584</v>
       </c>
       <c r="K14">
-        <v>15.17635619259046</v>
+        <v>14.49526720737832</v>
       </c>
       <c r="L14">
-        <v>5.685144009240931</v>
+        <v>11.62097878336109</v>
       </c>
       <c r="M14">
-        <v>13.36431514595913</v>
+        <v>9.911354522427796</v>
       </c>
       <c r="N14">
-        <v>7.432885880308551</v>
+        <v>5.591749549152673</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.30347757047272</v>
       </c>
       <c r="P14">
-        <v>12.40929502229997</v>
+        <v>7.601137323528055</v>
       </c>
       <c r="Q14">
-        <v>15.50450605378893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.37087103924422</v>
+      </c>
+      <c r="S14">
+        <v>14.90334491966201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.52136649296569</v>
+        <v>16.14172137303742</v>
       </c>
       <c r="C15">
-        <v>8.026280683798607</v>
+        <v>8.025635315883134</v>
       </c>
       <c r="D15">
-        <v>6.99799479648347</v>
+        <v>7.082111500232989</v>
       </c>
       <c r="E15">
-        <v>8.397986363464263</v>
+        <v>8.267226486143496</v>
       </c>
       <c r="F15">
-        <v>21.99511867895673</v>
+        <v>21.1933863354222</v>
       </c>
       <c r="G15">
-        <v>24.28641218896763</v>
+        <v>24.2565797559717</v>
       </c>
       <c r="I15">
-        <v>2.655285182151101</v>
+        <v>2.603930177818851</v>
       </c>
       <c r="J15">
-        <v>9.355650409914007</v>
+        <v>9.000324363065538</v>
       </c>
       <c r="K15">
-        <v>15.17958518256302</v>
+        <v>14.51144602091138</v>
       </c>
       <c r="L15">
-        <v>5.68764019711689</v>
+        <v>11.64144920613859</v>
       </c>
       <c r="M15">
-        <v>13.29861597608847</v>
+        <v>9.906951265882407</v>
       </c>
       <c r="N15">
-        <v>7.416127303512409</v>
+        <v>5.594342284401226</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.24510823274729</v>
       </c>
       <c r="P15">
-        <v>12.42587667068038</v>
+        <v>7.583977313219936</v>
       </c>
       <c r="Q15">
-        <v>15.49809306614195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.38431698058996</v>
+      </c>
+      <c r="S15">
+        <v>14.91604065320843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.01073529528682</v>
+        <v>15.66074979826656</v>
       </c>
       <c r="C16">
-        <v>7.927909665845369</v>
+        <v>7.917957913622206</v>
       </c>
       <c r="D16">
-        <v>6.861015058173296</v>
+        <v>6.91378231210409</v>
       </c>
       <c r="E16">
-        <v>8.338427634883327</v>
+        <v>8.19853184179666</v>
       </c>
       <c r="F16">
-        <v>21.84563553610329</v>
+        <v>21.16932611029457</v>
       </c>
       <c r="G16">
-        <v>24.10274113932038</v>
+        <v>23.29216554543722</v>
       </c>
       <c r="I16">
-        <v>2.755787674684514</v>
+        <v>2.690355898038677</v>
       </c>
       <c r="J16">
-        <v>9.377603216151119</v>
+        <v>9.308784537486956</v>
       </c>
       <c r="K16">
-        <v>15.22455678433503</v>
+        <v>14.61820868427154</v>
       </c>
       <c r="L16">
-        <v>5.704621617308547</v>
+        <v>11.76937739154281</v>
       </c>
       <c r="M16">
-        <v>12.91590366627146</v>
+        <v>9.897071872870505</v>
       </c>
       <c r="N16">
-        <v>7.311784335556254</v>
+        <v>5.611674487447551</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.89801392327653</v>
       </c>
       <c r="P16">
-        <v>12.52012783370758</v>
+        <v>7.476419992626117</v>
       </c>
       <c r="Q16">
-        <v>15.48593353278846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.46142647172367</v>
+      </c>
+      <c r="S16">
+        <v>14.99544425072536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.69273056053452</v>
+        <v>15.35274662499729</v>
       </c>
       <c r="C17">
-        <v>7.867163320452867</v>
+        <v>7.844790789947711</v>
       </c>
       <c r="D17">
-        <v>6.776249097710509</v>
+        <v>6.815132348192283</v>
       </c>
       <c r="E17">
-        <v>8.302404659089241</v>
+        <v>8.159394764012152</v>
       </c>
       <c r="F17">
-        <v>21.75685396967278</v>
+        <v>21.1380405285598</v>
       </c>
       <c r="G17">
-        <v>23.99422702394721</v>
+        <v>22.86664167430631</v>
       </c>
       <c r="I17">
-        <v>2.81865479886707</v>
+        <v>2.745245537687216</v>
       </c>
       <c r="J17">
-        <v>9.392105777568538</v>
+        <v>9.451896732966759</v>
       </c>
       <c r="K17">
-        <v>15.2538738008628</v>
+        <v>14.67596193241409</v>
       </c>
       <c r="L17">
-        <v>5.715265186517751</v>
+        <v>11.84304929368828</v>
       </c>
       <c r="M17">
-        <v>12.67536564794238</v>
+        <v>9.887748387129772</v>
       </c>
       <c r="N17">
-        <v>7.247925211815325</v>
+        <v>5.622437997245353</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.67360255119087</v>
       </c>
       <c r="P17">
-        <v>12.57848560155851</v>
+        <v>7.409910521660967</v>
       </c>
       <c r="Q17">
-        <v>15.48079456482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.51065438928634</v>
+      </c>
+      <c r="S17">
+        <v>15.03157153916373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.51703977126143</v>
+        <v>15.18103990707911</v>
       </c>
       <c r="C18">
-        <v>7.822953740174536</v>
+        <v>7.788961491564734</v>
       </c>
       <c r="D18">
-        <v>6.726327840219878</v>
+        <v>6.759135765478935</v>
       </c>
       <c r="E18">
-        <v>8.284346501133049</v>
+        <v>8.14042756438058</v>
       </c>
       <c r="F18">
-        <v>21.71984978486813</v>
+        <v>21.12727603926935</v>
       </c>
       <c r="G18">
-        <v>23.95485456903782</v>
+        <v>22.70111801446269</v>
       </c>
       <c r="I18">
-        <v>2.845683581252638</v>
+        <v>2.766108939134576</v>
       </c>
       <c r="J18">
-        <v>9.404316675156734</v>
+        <v>9.518078883218447</v>
       </c>
       <c r="K18">
-        <v>15.28118266984634</v>
+        <v>14.71598814488713</v>
       </c>
       <c r="L18">
-        <v>5.722449459466103</v>
+        <v>11.89061858621591</v>
       </c>
       <c r="M18">
-        <v>12.53499783295429</v>
+        <v>9.889106035767007</v>
       </c>
       <c r="N18">
-        <v>7.207753689117722</v>
+        <v>5.629619158178022</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.54037718291592</v>
       </c>
       <c r="P18">
-        <v>12.611791450444</v>
+        <v>7.36793625557623</v>
       </c>
       <c r="Q18">
-        <v>15.48753891542892</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.53888504911411</v>
+      </c>
+      <c r="S18">
+        <v>15.0567654383363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.44921472020631</v>
+        <v>15.11420722712233</v>
       </c>
       <c r="C19">
-        <v>7.814986790603277</v>
+        <v>7.778170696214383</v>
       </c>
       <c r="D19">
-        <v>6.710085971243002</v>
+        <v>6.741175601570635</v>
       </c>
       <c r="E19">
-        <v>8.276363064260041</v>
+        <v>8.132266703049366</v>
       </c>
       <c r="F19">
-        <v>21.69749064269096</v>
+        <v>21.11262576735108</v>
       </c>
       <c r="G19">
-        <v>23.92519221358827</v>
+        <v>22.63764993599206</v>
       </c>
       <c r="I19">
-        <v>2.86222056655265</v>
+        <v>2.782003775853289</v>
       </c>
       <c r="J19">
-        <v>9.405818102540167</v>
+        <v>9.534373361601824</v>
       </c>
       <c r="K19">
-        <v>15.28295520466855</v>
+        <v>14.72177518114401</v>
       </c>
       <c r="L19">
-        <v>5.724140950886631</v>
+        <v>11.90101105305328</v>
       </c>
       <c r="M19">
-        <v>12.48703356355186</v>
+        <v>9.883546080690886</v>
       </c>
       <c r="N19">
-        <v>7.19686767833698</v>
+        <v>5.631330371712572</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.4944774879959</v>
       </c>
       <c r="P19">
-        <v>12.62345854862352</v>
+        <v>7.356436887660174</v>
       </c>
       <c r="Q19">
-        <v>15.4831288002944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.54911087742558</v>
+      </c>
+      <c r="S19">
+        <v>15.05778846364509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.7276782458849</v>
+        <v>15.38682136791056</v>
       </c>
       <c r="C20">
-        <v>7.872930497989807</v>
+        <v>7.851983147350157</v>
       </c>
       <c r="D20">
-        <v>6.785228225544043</v>
+        <v>6.825388029675181</v>
       </c>
       <c r="E20">
-        <v>8.30641268175399</v>
+        <v>8.16364509513601</v>
       </c>
       <c r="F20">
-        <v>21.76721054883609</v>
+        <v>21.14299493974914</v>
       </c>
       <c r="G20">
-        <v>24.00730492171233</v>
+        <v>22.90764663118195</v>
       </c>
       <c r="I20">
-        <v>2.811152755105492</v>
+        <v>2.738419512656151</v>
       </c>
       <c r="J20">
-        <v>9.390797430820681</v>
+        <v>9.438905539461624</v>
       </c>
       <c r="K20">
-        <v>15.25145928018326</v>
+        <v>14.67083807151992</v>
       </c>
       <c r="L20">
-        <v>5.714200317322924</v>
+        <v>11.83593494695269</v>
       </c>
       <c r="M20">
-        <v>12.70119776262188</v>
+        <v>9.889445611764552</v>
       </c>
       <c r="N20">
-        <v>7.25444274049477</v>
+        <v>5.621361301361662</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.69793589715785</v>
       </c>
       <c r="P20">
-        <v>12.57221511997412</v>
+        <v>7.416731049568644</v>
       </c>
       <c r="Q20">
-        <v>15.48194961066795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.50528648314527</v>
+      </c>
+      <c r="S20">
+        <v>15.02887239860489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.6491580638044</v>
+        <v>16.24810769529811</v>
       </c>
       <c r="C21">
-        <v>8.057480018317511</v>
+        <v>8.047481108604678</v>
       </c>
       <c r="D21">
-        <v>7.033695626775019</v>
+        <v>7.13679618794375</v>
       </c>
       <c r="E21">
-        <v>8.411909843802857</v>
+        <v>8.288453654711802</v>
       </c>
       <c r="F21">
-        <v>22.02615743147653</v>
+        <v>21.15448509460986</v>
       </c>
       <c r="G21">
-        <v>24.32112731307701</v>
+        <v>24.80636753245285</v>
       </c>
       <c r="I21">
-        <v>2.636065789273295</v>
+        <v>2.590871916227664</v>
       </c>
       <c r="J21">
-        <v>9.347996465156349</v>
+        <v>8.828054756726003</v>
       </c>
       <c r="K21">
-        <v>15.16200480539849</v>
+        <v>14.46064120545995</v>
       </c>
       <c r="L21">
-        <v>5.682681296063172</v>
+        <v>11.59290003313072</v>
       </c>
       <c r="M21">
-        <v>13.39558218893657</v>
+        <v>9.890476264094035</v>
       </c>
       <c r="N21">
-        <v>7.445348304122167</v>
+        <v>5.589182757959402</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.32096668056111</v>
       </c>
       <c r="P21">
-        <v>12.40207718858275</v>
+        <v>7.612767713793386</v>
       </c>
       <c r="Q21">
-        <v>15.49612645671075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.36749385959123</v>
+      </c>
+      <c r="S21">
+        <v>14.86223770292644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.25759251223694</v>
+        <v>16.79493886278309</v>
       </c>
       <c r="C22">
-        <v>8.164108623745655</v>
+        <v>8.155454354686183</v>
       </c>
       <c r="D22">
-        <v>7.192271166836006</v>
+        <v>7.339228753527322</v>
       </c>
       <c r="E22">
-        <v>8.485935448508211</v>
+        <v>8.377073797770949</v>
       </c>
       <c r="F22">
-        <v>22.22308332254004</v>
+        <v>21.17449107394119</v>
       </c>
       <c r="G22">
-        <v>24.56991162614379</v>
+        <v>26.2319699958848</v>
       </c>
       <c r="I22">
-        <v>2.512011446316946</v>
+        <v>2.537734966803699</v>
       </c>
       <c r="J22">
-        <v>9.328448790763732</v>
+        <v>8.473403236398518</v>
       </c>
       <c r="K22">
-        <v>15.12330880303338</v>
+        <v>14.33319740087648</v>
       </c>
       <c r="L22">
-        <v>5.664201299070569</v>
+        <v>11.44441216766628</v>
       </c>
       <c r="M22">
-        <v>13.83069538656023</v>
+        <v>9.908940984023017</v>
       </c>
       <c r="N22">
-        <v>7.565677193468931</v>
+        <v>5.57011687412138</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.70782849505752</v>
       </c>
       <c r="P22">
-        <v>12.29183132324918</v>
+        <v>7.735721616354894</v>
       </c>
       <c r="Q22">
-        <v>15.52567844059224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.28024503920362</v>
+      </c>
+      <c r="S22">
+        <v>14.76026038953972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.94821479364825</v>
+        <v>16.5236325826658</v>
       </c>
       <c r="C23">
-        <v>8.095348736399769</v>
+        <v>8.09137972905552</v>
       </c>
       <c r="D23">
-        <v>7.106729143016342</v>
+        <v>7.223675098434709</v>
       </c>
       <c r="E23">
-        <v>8.449542797486545</v>
+        <v>8.329850958645018</v>
       </c>
       <c r="F23">
-        <v>22.13424703232828</v>
+        <v>21.20309320843153</v>
       </c>
       <c r="G23">
-        <v>24.46423344745576</v>
+        <v>25.30498884474883</v>
       </c>
       <c r="I23">
-        <v>2.56545940758884</v>
+        <v>2.524401696016489</v>
       </c>
       <c r="J23">
-        <v>9.343254572345179</v>
+        <v>8.710317223391559</v>
       </c>
       <c r="K23">
-        <v>15.15666573401376</v>
+        <v>14.4241179245265</v>
       </c>
       <c r="L23">
-        <v>5.675305924033417</v>
+        <v>11.53862038931203</v>
       </c>
       <c r="M23">
-        <v>13.60031806523342</v>
+        <v>9.918128033166003</v>
       </c>
       <c r="N23">
-        <v>7.49689967587934</v>
+        <v>5.581557928706407</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.51026617789414</v>
       </c>
       <c r="P23">
-        <v>12.34974958998602</v>
+        <v>7.666295233250136</v>
       </c>
       <c r="Q23">
-        <v>15.52102773137469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.32381334499403</v>
+      </c>
+      <c r="S23">
+        <v>14.84305089119282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.73317762173568</v>
+        <v>15.3928249126567</v>
       </c>
       <c r="C24">
-        <v>7.851140044026363</v>
+        <v>7.825396454072752</v>
       </c>
       <c r="D24">
-        <v>6.779255620858058</v>
+        <v>6.818800232575987</v>
       </c>
       <c r="E24">
-        <v>8.309809690984167</v>
+        <v>8.166967650166789</v>
       </c>
       <c r="F24">
-        <v>21.78994259307982</v>
+        <v>21.16823141708167</v>
       </c>
       <c r="G24">
-        <v>24.04681146080195</v>
+        <v>22.93540061116921</v>
       </c>
       <c r="I24">
-        <v>2.795146187135937</v>
+        <v>2.718434052382242</v>
       </c>
       <c r="J24">
-        <v>9.398786765560942</v>
+        <v>9.451871997841318</v>
       </c>
       <c r="K24">
-        <v>15.27336344999598</v>
+        <v>14.69321819736168</v>
       </c>
       <c r="L24">
-        <v>5.71675249867309</v>
+        <v>11.85377503478214</v>
       </c>
       <c r="M24">
-        <v>12.68973195297958</v>
+        <v>9.904991379151181</v>
       </c>
       <c r="N24">
-        <v>7.244117798090103</v>
+        <v>5.623842161616246</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.68712423722639</v>
       </c>
       <c r="P24">
-        <v>12.57404911245396</v>
+        <v>7.40617380129892</v>
       </c>
       <c r="Q24">
-        <v>15.5001717496339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.50611829428343</v>
+      </c>
+      <c r="S24">
+        <v>15.04866582107838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33853905845026</v>
+        <v>14.01898435651233</v>
       </c>
       <c r="C25">
-        <v>7.580804041099379</v>
+        <v>7.43933609434632</v>
       </c>
       <c r="D25">
-        <v>6.41635923243679</v>
+        <v>6.444493197611721</v>
       </c>
       <c r="E25">
-        <v>8.166832011235375</v>
+        <v>8.0311924344737</v>
       </c>
       <c r="F25">
-        <v>21.46112562590644</v>
+        <v>20.9179700895143</v>
       </c>
       <c r="G25">
-        <v>23.65729553115829</v>
+        <v>22.5104288142861</v>
       </c>
       <c r="I25">
-        <v>3.057789999568285</v>
+        <v>2.951838230441759</v>
       </c>
       <c r="J25">
-        <v>9.47322790508021</v>
+        <v>9.556558283428185</v>
       </c>
       <c r="K25">
-        <v>15.42375665855583</v>
+        <v>14.88521303792167</v>
       </c>
       <c r="L25">
-        <v>5.764749572465595</v>
+        <v>12.12713974176007</v>
       </c>
       <c r="M25">
-        <v>11.62677334071278</v>
+        <v>9.860332275266025</v>
       </c>
       <c r="N25">
-        <v>6.973525139874987</v>
+        <v>5.671366362015337</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.63886349930022</v>
       </c>
       <c r="P25">
-        <v>12.82386432658453</v>
+        <v>7.119063956492147</v>
       </c>
       <c r="Q25">
-        <v>15.5103779876351</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.72666315076594</v>
+      </c>
+      <c r="S25">
+        <v>15.10958822483044</v>
       </c>
     </row>
   </sheetData>
